--- a/documents/20_要件定義/10_初期検討/画面イメージ.xlsx
+++ b/documents/20_要件定義/10_初期検討/画面イメージ.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\git\jyuku_saito\documents\20_要件定義\10_初期検討\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625818B8-FB00-4DB5-BDB0-6B598F1E255B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38400" yWindow="180" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +25,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +343,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/20_要件定義/10_初期検討/画面イメージ.xlsx
+++ b/documents/20_要件定義/10_初期検討/画面イメージ.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\git\jyuku_saito\documents\20_要件定義\10_初期検討\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625818B8-FB00-4DB5-BDB0-6B598F1E255B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDF5F2-AEC8-4473-88EB-62EEDAD9ED8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="180" windowWidth="14400" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全体方針" sheetId="5" r:id="rId1"/>
+    <sheet name="公開Webページ" sheetId="1" r:id="rId2"/>
+    <sheet name="事務システム（Ver1）" sheetId="6" r:id="rId3"/>
+    <sheet name="DB構成" sheetId="2" r:id="rId4"/>
+    <sheet name="区分一覧" sheetId="3" r:id="rId5"/>
+    <sheet name="フォルダ構成" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +29,1521 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="154">
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ略</t>
+    <rPh sb="4" eb="5">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト全体の基本構成は以下のとおりとする。</t>
+    <rPh sb="3" eb="5">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本構成</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各サイト構成</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割・説明</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広告を兼ねたトップページ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装メモ</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定の案内文や画像ファイルを表示させる。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>アンナイブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>授業料</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示開始日</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示終了日</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示種類区分</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示種類区分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク先URL</t>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>授業料やカリキュラム例を表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>ジュギョウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java実装なしの想定。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてHTMLの直打ちとする。</t>
+    <rPh sb="8" eb="10">
+      <t>ジカウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指導方針・運営方針</t>
+    <rPh sb="0" eb="2">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指導方針や授業風景、塾自体の運営方針等を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウンエイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくあるご質問</t>
+    <rPh sb="5" eb="7">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QA方式でよくある質問類を表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ状況管理テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せID</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ状況区分</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ状況区分</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジョウキョウクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受付</t>
+    <rPh sb="0" eb="2">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応済み</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受付日</t>
+    <rPh sb="0" eb="2">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応開始日</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応完了日</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ対応メモ</t>
+    <rPh sb="0" eb="2">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ受付内容テーブル</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ分類</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お子様氏名（漢字）</t>
+    <rPh sb="1" eb="3">
+      <t>コサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お子様氏名（カナ）</t>
+    <rPh sb="1" eb="3">
+      <t>コサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お子様性別</t>
+    <rPh sb="1" eb="3">
+      <t>コサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在学校名</t>
+    <rPh sb="0" eb="1">
+      <t>ザイ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ガッコウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学年区分</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学年区分</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学校５年</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学校６年</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学校１年</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学校２年</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学校３年</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力者間柄区分</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイダガラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人</t>
+    <rPh sb="0" eb="2">
+      <t>ホンニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>父</t>
+    <rPh sb="0" eb="1">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母</t>
+    <rPh sb="0" eb="1">
+      <t>ハハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖父</t>
+    <rPh sb="0" eb="2">
+      <t>ソフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖母</t>
+    <rPh sb="0" eb="2">
+      <t>ソボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力者氏名（漢字）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力者氏名（カナ）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンション名等</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eメールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ内容</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お子様情報や入力者情報、問合せ内容を記入いただく。</t>
+    <rPh sb="1" eb="3">
+      <t>コサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「送信」時に画面で入力された問合せ情報をDBに保存する。</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客情報項目はDB登録時に暗号化処理する。</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各サイト構成は以下のとおりとする。</t>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開Webページ</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塾立上げにあたり、公開Webページと事務システムを作成する。</t>
+    <rPh sb="0" eb="1">
+      <t>ジュク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タチア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジム</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネット上でWebページを公開する。</t>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン制限等は設けない。</t>
+    <rPh sb="4" eb="6">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案内表示マスタにて表示内容を管理・制御。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案内表示マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ整備や問合せ管理を行うためのWebシステム。</t>
+    <rPh sb="3" eb="5">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン情報を入力することでシステムを使用できる。</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒・保護者向けシステム</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホゴシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講履歴や講師からの（指導）コメント、宿題情報を閲覧できるWebシステム。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュクダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>授業後に講師が宿題や指導コメントを登録し、それを生徒や保護者が閲覧できるようにする。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュクダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ホゴシャ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来的には生徒情報や授業料支払い状況等を管理できるようにする。</t>
+    <rPh sb="0" eb="3">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ジュギョウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（指導コメントは①生徒・保護者向けと②保護者向けの２種類を登録できるようにする）</t>
+    <rPh sb="1" eb="3">
+      <t>シドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホゴシャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ホゴシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒数が増えてきたら以下を作成することを検討する。</t>
+    <rPh sb="0" eb="3">
+      <t>セイトスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事務システム（Ver.1）</t>
+    <rPh sb="0" eb="2">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事務システム（Ver.2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立上げ時に作成</t>
+    <rPh sb="0" eb="2">
+      <t>タチア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>将来的に作成検討</t>
+    <rPh sb="0" eb="3">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべてのシステムはJavaの「Spring Framework」を用いたWebアプリケーションとする。</t>
+    <rPh sb="33" eb="34">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、システム構成は以下とする。</t>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS EC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBサーバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS RDS（MySql？）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gmailを使用（メールサーバを立てる等のシステム対応は行わない）</t>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドメイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS Route53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（立上げ時点はExcel管理）</t>
+    <rPh sb="1" eb="3">
+      <t>タチア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver1に対して機能追加する</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体方針</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム化費用</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンデマンドインスタンスではなくスポットインスタンスを使用する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24時間365日。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働時間</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス種別</t>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入当初はいずれのシステムも利用者がごく僅かであることを想定し、</t>
+  </si>
+  <si>
+    <t>インスタンス数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入時は１インスタンスとする。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面　→　メニュー画面　→　（機能名リンク押下）　→　各機能画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面の基本構成は以下とする。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※機能追加時はメニューに該当機能のリンクを増やす</t>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各機能の画面イメージ</t>
+    <rPh sb="0" eb="3">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎ユーザーIDとパスワードを入力してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◇パスワード変更</t>
+  </si>
+  <si>
+    <t>◇ログアウト</t>
+  </si>
+  <si>
+    <t>◇マスタ整備</t>
+    <rPh sb="4" eb="6">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◇問い合わせ管理</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名：XXXXXXXX</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ整備</t>
+    <rPh sb="3" eb="5">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■マスタ整備</t>
+    <rPh sb="4" eb="6">
+      <t>セイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎整備対象のマスタを選択してください。</t>
+    <rPh sb="1" eb="3">
+      <t>セイビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行マスタダウンロード</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタ名選択</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行マスタダウンロード（CSV形式）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（ユーザー：手動修正）</t>
+    <rPh sb="6" eb="8">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新マスタアップロード（CSV形式）</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（エラーチェック・DB更新）</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルアップロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +1558,46 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -58,18 +1605,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,6 +1934,469 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196D7DDF-7A27-4E62-9DFF-282C91B7DB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="947738"/>
+          <a:ext cx="171450" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A886B55-09E7-4506-8281-798AB183B3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9244013" y="2290762"/>
+          <a:ext cx="195262" cy="1500188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>113536</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA5816D-4526-4EB0-88C8-12D7DDE3C1E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="914400"/>
+          <a:ext cx="6114286" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65BB2C6-0F81-4332-BC55-26E2C0883D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="1009650"/>
+          <a:ext cx="1152525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FA8B4B-4895-48DC-B636-CB0B2F4C4540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="2876550"/>
+          <a:ext cx="1095375" cy="657069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B2CDE5-EEB9-4844-BDE0-5B6FF72E1EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="1514475"/>
+          <a:ext cx="5876925" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2F1731-13E9-4FB9-BD31-FB5080472879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="1257300"/>
+          <a:ext cx="1209675" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>94462</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBDDD9F-2D43-4CB3-955D-590C6BA0BB98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="2286000"/>
+          <a:ext cx="6295238" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,17 +2661,3130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14DACC9-86B8-4F54-98A9-28CC90AFDD57}">
+  <dimension ref="B2:BH37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:60">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:60">
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:60">
+      <c r="D5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="23"/>
+    </row>
+    <row r="6" spans="2:60">
+      <c r="D6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="14"/>
+      <c r="AZ6" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="37"/>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="37"/>
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
+    </row>
+    <row r="7" spans="2:60">
+      <c r="D7" s="13"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="14"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="37"/>
+      <c r="BB7" s="37"/>
+      <c r="BC7" s="37"/>
+      <c r="BD7" s="37"/>
+      <c r="BE7" s="37"/>
+      <c r="BF7" s="37"/>
+      <c r="BG7" s="37"/>
+      <c r="BH7" s="37"/>
+    </row>
+    <row r="8" spans="2:60" ht="17.649999999999999" customHeight="1">
+      <c r="D8" s="13"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="14"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37"/>
+    </row>
+    <row r="9" spans="2:60" ht="17.649999999999999" customHeight="1">
+      <c r="D9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="12"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+    </row>
+    <row r="10" spans="2:60">
+      <c r="D10" s="13"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="14"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="37"/>
+    </row>
+    <row r="11" spans="2:60">
+      <c r="D11" s="13"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="14"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
+      <c r="BD11" s="37"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="37"/>
+    </row>
+    <row r="12" spans="2:60">
+      <c r="D12" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="29"/>
+      <c r="AZ12" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="37"/>
+    </row>
+    <row r="13" spans="2:60">
+      <c r="D13" s="34"/>
+      <c r="E13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="36"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="37"/>
+      <c r="BH13" s="37"/>
+    </row>
+    <row r="14" spans="2:60">
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="31"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="31"/>
+      <c r="AN14" s="31"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="31"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="33"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="37"/>
+      <c r="BC14" s="37"/>
+      <c r="BD14" s="37"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="37"/>
+      <c r="BG14" s="37"/>
+      <c r="BH14" s="37"/>
+    </row>
+    <row r="15" spans="2:60" ht="17.649999999999999" customHeight="1">
+      <c r="D15" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="35"/>
+      <c r="AT15" s="35"/>
+      <c r="AU15" s="35"/>
+      <c r="AV15" s="36"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="37"/>
+    </row>
+    <row r="16" spans="2:60" ht="17.649999999999999" customHeight="1">
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="35"/>
+      <c r="AT16" s="35"/>
+      <c r="AU16" s="35"/>
+      <c r="AV16" s="36"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="37"/>
+    </row>
+    <row r="17" spans="3:60" ht="17.649999999999999" customHeight="1">
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="36"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="37"/>
+      <c r="BG17" s="37"/>
+      <c r="BH17" s="37"/>
+    </row>
+    <row r="18" spans="3:60">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="36"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+    </row>
+    <row r="19" spans="3:60">
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="33"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="37"/>
+      <c r="BE19" s="37"/>
+      <c r="BF19" s="37"/>
+      <c r="BG19" s="37"/>
+      <c r="BH19" s="37"/>
+    </row>
+    <row r="22" spans="3:60">
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="3:60">
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="3:60">
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="3:60">
+      <c r="K26" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" t="s">
+        <v>118</v>
+      </c>
+      <c r="S26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="3:60">
+      <c r="K27" t="s">
+        <v>115</v>
+      </c>
+      <c r="R27" t="s">
+        <v>118</v>
+      </c>
+      <c r="S27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="3:60">
+      <c r="S28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="3:60">
+      <c r="K29" t="s">
+        <v>117</v>
+      </c>
+      <c r="R29" t="s">
+        <v>118</v>
+      </c>
+      <c r="S29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="3:60">
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AZ12:BH19"/>
+    <mergeCell ref="AZ6:BH11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AZ41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18" thickBot="1"/>
+    <row r="5" spans="2:9" ht="18" thickTop="1">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" ht="18" thickBot="1">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" ht="18" thickTop="1">
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" thickBot="1">
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickTop="1">
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" ht="18" thickBot="1">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" ht="18" thickTop="1"/>
+    <row r="23" spans="2:52">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:52">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:52">
+      <c r="C26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="20"/>
+    </row>
+    <row r="27" spans="2:52">
+      <c r="C27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="12"/>
+    </row>
+    <row r="28" spans="2:52">
+      <c r="C28" s="13"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="14"/>
+    </row>
+    <row r="29" spans="2:52">
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="16"/>
+      <c r="AX29" s="16"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="17"/>
+    </row>
+    <row r="30" spans="2:52">
+      <c r="C30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="14"/>
+    </row>
+    <row r="31" spans="2:52">
+      <c r="C31" s="13"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="14"/>
+    </row>
+    <row r="32" spans="2:52">
+      <c r="C32" s="13"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="14"/>
+    </row>
+    <row r="33" spans="3:52">
+      <c r="C33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="12"/>
+    </row>
+    <row r="34" spans="3:52">
+      <c r="C34" s="13"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="14"/>
+    </row>
+    <row r="35" spans="3:52">
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="16"/>
+      <c r="AM35" s="16"/>
+      <c r="AN35" s="16"/>
+      <c r="AO35" s="16"/>
+      <c r="AP35" s="16"/>
+      <c r="AQ35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="16"/>
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="17"/>
+    </row>
+    <row r="36" spans="3:52">
+      <c r="C36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="14"/>
+    </row>
+    <row r="37" spans="3:52">
+      <c r="C37" s="13"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="14"/>
+    </row>
+    <row r="38" spans="3:52">
+      <c r="C38" s="13"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="14"/>
+    </row>
+    <row r="39" spans="3:52">
+      <c r="C39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="12"/>
+    </row>
+    <row r="40" spans="3:52">
+      <c r="C40" s="13"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="14"/>
+    </row>
+    <row r="41" spans="3:52">
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
+      <c r="AO41" s="16"/>
+      <c r="AP41" s="16"/>
+      <c r="AQ41" s="16"/>
+      <c r="AR41" s="16"/>
+      <c r="AS41" s="16"/>
+      <c r="AT41" s="16"/>
+      <c r="AU41" s="16"/>
+      <c r="AV41" s="16"/>
+      <c r="AW41" s="16"/>
+      <c r="AX41" s="16"/>
+      <c r="AY41" s="16"/>
+      <c r="AZ41" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB02072D-7DC9-4A5C-9D14-644051F2D842}">
+  <dimension ref="B2:AA60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22">
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18" thickBot="1"/>
+    <row r="11" spans="2:22" ht="18" thickTop="1">
+      <c r="D11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="2:22" ht="18" thickBot="1">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="3:22" ht="18" thickBot="1">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="3:22" ht="18" thickBot="1">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19" spans="3:22" ht="18" thickTop="1"/>
+    <row r="21" spans="3:22" ht="18" thickBot="1">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" ht="18" thickTop="1">
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="D24" s="4"/>
+      <c r="E24" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="3:22">
+      <c r="D25" s="4"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="3:22">
+      <c r="D26" s="4"/>
+      <c r="E26" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="D27" s="4"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="3:22">
+      <c r="D28" s="4"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="3:22">
+      <c r="D29" s="4"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="3:22">
+      <c r="D30" s="4"/>
+      <c r="E30" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="3:22" ht="18" thickBot="1">
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="9"/>
+    </row>
+    <row r="32" spans="3:22" ht="18" thickTop="1"/>
+    <row r="34" spans="3:27">
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27">
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27">
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27">
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27">
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27">
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27">
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27">
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27">
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27">
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27">
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27" ht="18" thickBot="1"/>
+    <row r="48" spans="3:27" ht="18" thickTop="1">
+      <c r="D48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="4:27">
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="4:27" ht="18" thickBot="1">
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="4:27" ht="18" thickBot="1">
+      <c r="D51" s="4"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="6"/>
+    </row>
+    <row r="52" spans="4:27" ht="18" thickBot="1">
+      <c r="D52" s="4"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="6"/>
+    </row>
+    <row r="53" spans="4:27" ht="18" thickBot="1">
+      <c r="D53" s="4"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="6"/>
+    </row>
+    <row r="54" spans="4:27" ht="18" thickBot="1">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="4:27" ht="18" thickBot="1">
+      <c r="D55" s="4"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="6"/>
+    </row>
+    <row r="56" spans="4:27" ht="18" thickBot="1">
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="6"/>
+    </row>
+    <row r="57" spans="4:27" ht="18" thickBot="1">
+      <c r="D57" s="4"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="6"/>
+    </row>
+    <row r="58" spans="4:27">
+      <c r="D58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="6"/>
+    </row>
+    <row r="59" spans="4:27" ht="18" thickBot="1">
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="9"/>
+    </row>
+    <row r="60" spans="4:27" ht="18" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="K53:T53"/>
+    <mergeCell ref="K57:T57"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEFABBE-D0D2-48DC-8718-6E492D7428AB}">
+  <dimension ref="B5:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="2" width="2.5625" customWidth="1"/>
+    <col min="4" max="5" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.9375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:19">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAFA8DC-D850-4060-891C-9CF9DED3D77B}">
+  <dimension ref="B3:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="1" max="1" width="2.5625" customWidth="1"/>
+    <col min="2" max="2" width="13.9375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.0625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DD488C-EBDF-42E9-A0DC-0A78D96A7040}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>